--- a/classfiers/bottleneck/svm/nearmiss/bottleneck-svm-linear-nearmiss-results.xlsx
+++ b/classfiers/bottleneck/svm/nearmiss/bottleneck-svm-linear-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.9035087719298246</v>
       </c>
     </row>
     <row r="3">
@@ -489,10 +489,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9714285714285714</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7368421052631579</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.717948717948718</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6988304093567251</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9142857142857143</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9766081871345029</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6153846153846154</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5161290322580646</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7870370370370371</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8630769230769232</v>
+        <v>0.9285714285714285</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7602339181286549</v>
+        <v>0.8052631578947368</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8057765890023955</v>
+        <v>0.8277861069465267</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8866471734892787</v>
+        <v>0.9760233918128656</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/bottleneck/svm/nearmiss/bottleneck-svm-linear-nearmiss-results.xlsx
+++ b/classfiers/bottleneck/svm/nearmiss/bottleneck-svm-linear-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6428571428571429</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7826086956521739</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9035087719298246</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.5888888888888889</v>
       </c>
     </row>
     <row r="4">
@@ -508,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6896551724137931</v>
+        <v>0.9</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9766081871345029</v>
+        <v>0.9777777777777777</v>
       </c>
     </row>
     <row r="6">
@@ -546,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6153846153846153</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9285714285714285</v>
+        <v>0.9800000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8052631578947368</v>
+        <v>0.6199999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8277861069465267</v>
+        <v>0.7126007326007326</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9760233918128656</v>
+        <v>0.9133333333333333</v>
       </c>
     </row>
   </sheetData>
